--- a/Asesores.xlsx
+++ b/Asesores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\usuario\Desktop\VIALE\APP\Asesores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AACD4E7-4C7C-4E09-9975-33D002A988FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AE919A-21B6-47E6-9914-869AC2609E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD5E126E-B025-40D3-BFA8-DFA250FDB459}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
   <si>
     <t>Tienda</t>
   </si>
@@ -85,6 +85,12 @@
   </si>
   <si>
     <t>LUIS CHÁVEZ</t>
+  </si>
+  <si>
+    <t>JOSE CRUZ</t>
+  </si>
+  <si>
+    <t>JOSE MARTÍNEZ</t>
   </si>
 </sst>
 </file>
@@ -442,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBC19-30CB-4351-810B-A0C90C07B456}">
-  <dimension ref="A1:B12"/>
+  <dimension ref="A1:B14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -549,6 +555,22 @@
         <v>16</v>
       </c>
     </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>15</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Asesores.xlsx
+++ b/Asesores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\usuario\Desktop\VIALE\APP\Asesores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05AE919A-21B6-47E6-9914-869AC2609E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E54618-6F03-4E3D-B376-AC04765CE41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD5E126E-B025-40D3-BFA8-DFA250FDB459}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
   <si>
     <t>Tienda</t>
   </si>
@@ -91,6 +91,33 @@
   </si>
   <si>
     <t>JOSE MARTÍNEZ</t>
+  </si>
+  <si>
+    <t>ALJP</t>
+  </si>
+  <si>
+    <t>ROCIO LISBET MUÑOZ HUERTA</t>
+  </si>
+  <si>
+    <t>MARIA MILAGROS GUEVARA CUYA</t>
+  </si>
+  <si>
+    <t>VANESSA CAROLINE REYES AVILA</t>
+  </si>
+  <si>
+    <t>MARYORI CAROL PEREZ BARRIAL</t>
+  </si>
+  <si>
+    <t>NILA MELISSA VILLEGAS CHAVEZ</t>
+  </si>
+  <si>
+    <t>MILAGROS LAURA ARHUATA</t>
+  </si>
+  <si>
+    <t>CARLOS ANTONIO FALCON CARBAJAL</t>
+  </si>
+  <si>
+    <t>KYARA MICAELA CORDOVA GAMARRA</t>
   </si>
 </sst>
 </file>
@@ -448,10 +475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBC19-30CB-4351-810B-A0C90C07B456}">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -571,6 +598,70 @@
         <v>18</v>
       </c>
     </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>19</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B22" t="s">
+        <v>27</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Asesores.xlsx
+++ b/Asesores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\usuario\Desktop\VIALE\APP\Asesores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81E54618-6F03-4E3D-B376-AC04765CE41A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25811507-3F45-40D0-9136-ABDA7830743A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD5E126E-B025-40D3-BFA8-DFA250FDB459}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
   <si>
     <t>Tienda</t>
   </si>
@@ -112,12 +112,6 @@
   </si>
   <si>
     <t>MILAGROS LAURA ARHUATA</t>
-  </si>
-  <si>
-    <t>CARLOS ANTONIO FALCON CARBAJAL</t>
-  </si>
-  <si>
-    <t>KYARA MICAELA CORDOVA GAMARRA</t>
   </si>
 </sst>
 </file>
@@ -475,15 +469,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBC19-30CB-4351-810B-A0C90C07B456}">
-  <dimension ref="A1:B22"/>
+  <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
@@ -646,22 +640,6 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>19</v>
-      </c>
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>19</v>
-      </c>
-      <c r="B22" t="s">
-        <v>27</v>
-      </c>
-    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Asesores.xlsx
+++ b/Asesores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\usuario\Desktop\VIALE\APP\Asesores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25811507-3F45-40D0-9136-ABDA7830743A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ED516A-3ECC-4E95-BCCB-1517A9E41C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD5E126E-B025-40D3-BFA8-DFA250FDB459}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="274">
   <si>
     <t>Tienda</t>
   </si>
@@ -42,57 +42,18 @@
     <t>AL418</t>
   </si>
   <si>
-    <t>KAELIN DÍAZ</t>
-  </si>
-  <si>
-    <t>JAVIER VLAVERDE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ISAAC MELENDEZ </t>
-  </si>
-  <si>
-    <t>EDWAR CAMARGO</t>
-  </si>
-  <si>
-    <t>ADY LAUREL</t>
-  </si>
-  <si>
-    <t>KEVIN ROMAN</t>
-  </si>
-  <si>
-    <t>SANTOS POLO</t>
-  </si>
-  <si>
     <t>AL705</t>
   </si>
   <si>
-    <t>JANNET VENTURA</t>
-  </si>
-  <si>
     <t>Vendedor</t>
   </si>
   <si>
     <t>AL470</t>
   </si>
   <si>
-    <t>ALEXANDRA</t>
-  </si>
-  <si>
-    <t>MISHELL</t>
-  </si>
-  <si>
     <t>AL357</t>
   </si>
   <si>
-    <t>LUIS CHÁVEZ</t>
-  </si>
-  <si>
-    <t>JOSE CRUZ</t>
-  </si>
-  <si>
-    <t>JOSE MARTÍNEZ</t>
-  </si>
-  <si>
     <t>ALJP</t>
   </si>
   <si>
@@ -112,6 +73,792 @@
   </si>
   <si>
     <t>MILAGROS LAURA ARHUATA</t>
+  </si>
+  <si>
+    <t>AL446</t>
+  </si>
+  <si>
+    <t>COTRINA SALAS DAYANA MARIETH</t>
+  </si>
+  <si>
+    <t>DELGADO SALAS ABIGAHIL</t>
+  </si>
+  <si>
+    <t>LIRA MENDOZA GLORIA MILAGROS</t>
+  </si>
+  <si>
+    <t>TRUJILLO DAVILA GRITTSELL FABIOLA</t>
+  </si>
+  <si>
+    <t>CANDELA MISARI HEBERT JOEL</t>
+  </si>
+  <si>
+    <t>FALCON CARBAJAL CARLOS ANTONIO</t>
+  </si>
+  <si>
+    <t>LEON CRISANTO MARILYN JUANA</t>
+  </si>
+  <si>
+    <t>MAMANI SULCA SANDRA IVANA</t>
+  </si>
+  <si>
+    <t>MANRIQUE TUANAMA LUZ MARIA</t>
+  </si>
+  <si>
+    <t>NUÑEZ CHOTA JACQUELINE MARGOT</t>
+  </si>
+  <si>
+    <t>PALACO HUAHUASONCO PERCY MAXIMO</t>
+  </si>
+  <si>
+    <t>RAMIREZ SUAREZ DEBORA</t>
+  </si>
+  <si>
+    <t>TINEO SOSA MARISABEL ALEXANDRA</t>
+  </si>
+  <si>
+    <t>TUANAMA NOLORBE MARTHA MILAGROS</t>
+  </si>
+  <si>
+    <t>ALVA ROBLES EMILY STEFANIA</t>
+  </si>
+  <si>
+    <t>BUSTAMANTE MORENO BRENDA STEPHANY</t>
+  </si>
+  <si>
+    <t>CAMARENA MARQUEZ GLADYS BRENDA</t>
+  </si>
+  <si>
+    <t>RIVERA PARIONA RENZO EDUARDO</t>
+  </si>
+  <si>
+    <t>GAMARRA SALAZAR CRISTINA LAYDI</t>
+  </si>
+  <si>
+    <t>MEJIA VARGAS MELANY GABRIELA</t>
+  </si>
+  <si>
+    <t>RETUERTO CHAVARRIA YANELA ENITHA</t>
+  </si>
+  <si>
+    <t>AL450</t>
+  </si>
+  <si>
+    <t>CAISARA RUIZ KEYLA MERARI</t>
+  </si>
+  <si>
+    <t>CAMPOS PONCE FIORELLA VICTORIA</t>
+  </si>
+  <si>
+    <t>FLORES GOMEZ KAREN RAQUEL</t>
+  </si>
+  <si>
+    <t>FLORES HERRERA SEBASTIAN ROBERTO</t>
+  </si>
+  <si>
+    <t>ALLCCA RAMOS MAGALY ROSARIO</t>
+  </si>
+  <si>
+    <t>LUCIO LUCERO JESSICA MICAELA</t>
+  </si>
+  <si>
+    <t>MARIANO HINOSTROZA BEATRIZ VALERIA</t>
+  </si>
+  <si>
+    <t>OBLITAS SALAZAR FANNY ARACELY</t>
+  </si>
+  <si>
+    <t>OMONTE CACERES ROCIO LORENZA</t>
+  </si>
+  <si>
+    <t>REYES DEL CARPIO JAQUELINE ROSA</t>
+  </si>
+  <si>
+    <t>SALAZAR APONTE BERTHA ELIZABETH</t>
+  </si>
+  <si>
+    <t>ZAVALETA MILLA JULIO CESAR</t>
+  </si>
+  <si>
+    <t>ALCHIC</t>
+  </si>
+  <si>
+    <t>CASTRO GUEVARA RUTH NOEMI</t>
+  </si>
+  <si>
+    <t>CAYETANO DÍAZ SHEYLA NOELIA</t>
+  </si>
+  <si>
+    <t>FERNANDEZ QUISPE ELVIRA</t>
+  </si>
+  <si>
+    <t>GARCIA MUÑOZ MAYRA LISSETH</t>
+  </si>
+  <si>
+    <t>HERNANDEZ VEGA MARIA CAROLAY</t>
+  </si>
+  <si>
+    <t>HUAÑEC SANGAMA MARIA LUZ</t>
+  </si>
+  <si>
+    <t>MEDIANERO PAIS ANGIE</t>
+  </si>
+  <si>
+    <t>MESTANZA VILCHEZ JESSBY DANIELA</t>
+  </si>
+  <si>
+    <t>REYES MOROCHO ADLER EUGENIA</t>
+  </si>
+  <si>
+    <t>ALTRUJ</t>
+  </si>
+  <si>
+    <t>BRINGAS CASTILLO OLGA YRALDI</t>
+  </si>
+  <si>
+    <t>CUBA CRISANTO NAHOMY STAPHANE</t>
+  </si>
+  <si>
+    <t>GOMEZ UGARTE JULY MARGARITA</t>
+  </si>
+  <si>
+    <t>PINTO VALDERRAMA KARINA ISABEL</t>
+  </si>
+  <si>
+    <t>SANTILLAN ESPINOZA ERICK ALBERT</t>
+  </si>
+  <si>
+    <t>SILVA SANCHEZ SANDRA PAOLA</t>
+  </si>
+  <si>
+    <t>ALMGP</t>
+  </si>
+  <si>
+    <t>CALDAS FLORES JULIA FELICITA</t>
+  </si>
+  <si>
+    <t>DAVILA PAIMA LUIS STALYN</t>
+  </si>
+  <si>
+    <t>GARCIA GUERRA CLAUDIA GIANNINA</t>
+  </si>
+  <si>
+    <t>MAMANI HUAMAN YOHANA</t>
+  </si>
+  <si>
+    <t>MUJICA URBANO ANGIE ANAI</t>
+  </si>
+  <si>
+    <t>OLIVOS COTRINA ASTRID ANDERE</t>
+  </si>
+  <si>
+    <t>PACHERREZ SOSA NELIDA</t>
+  </si>
+  <si>
+    <t>PEÑA ROSALES JOSELIN KATHERINE</t>
+  </si>
+  <si>
+    <t>ZABALETA NUÑEZ MARGARITA ELIZABETH</t>
+  </si>
+  <si>
+    <t>ALMCHIMB</t>
+  </si>
+  <si>
+    <t>ALGARATE GUIMARAY EMILY NICOLE</t>
+  </si>
+  <si>
+    <t>CARRASCO ARMAS RUT BELEN</t>
+  </si>
+  <si>
+    <t>CASTRO ARICA LILISBETH VIRGINIA</t>
+  </si>
+  <si>
+    <t>EVANGELISTA MANRIQUE YUSLI JHOVELY</t>
+  </si>
+  <si>
+    <t>HIDALGO MONTENEGRO JENNYFER ESTEFFANY</t>
+  </si>
+  <si>
+    <t>MARIÑOS REYES YOMIRA STEPHANIE</t>
+  </si>
+  <si>
+    <t>OBREGON RODRIGUEZ MARYORI NICOLL</t>
+  </si>
+  <si>
+    <t>PAREDES SIFUENTES FLAVIA NOELIA</t>
+  </si>
+  <si>
+    <t>SEMINARIO GOMEZ NICOLE ALEJANDRA</t>
+  </si>
+  <si>
+    <t>ALMEGCHIM</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ CAPCHA ISABEL MERCEDES</t>
+  </si>
+  <si>
+    <t>EULOGIO MORALES GREY YAMILLE</t>
+  </si>
+  <si>
+    <t>FALEN SAMPEN BLANCA BEATRIZ</t>
+  </si>
+  <si>
+    <t>SANCHEZ OLIVERA MIGUEL ANGEL</t>
+  </si>
+  <si>
+    <t>VASQUEZ CERNA DEYSI MASSIEL</t>
+  </si>
+  <si>
+    <t>VILLOSLADA MEGO ENGHIE STEFHANY</t>
+  </si>
+  <si>
+    <t>ALSTA</t>
+  </si>
+  <si>
+    <t>BERNA ROMERO DANTE ESTEBAN</t>
+  </si>
+  <si>
+    <t>HUAYRA SIERRA MARIBEL</t>
+  </si>
+  <si>
+    <t>PIZARRO MONDALGO ANAHI YURICO</t>
+  </si>
+  <si>
+    <t>TORRES BARBOZA ISABEL</t>
+  </si>
+  <si>
+    <t>ALICA</t>
+  </si>
+  <si>
+    <t>AGUILAR SILVERA NAYELLY ESTEFANIA</t>
+  </si>
+  <si>
+    <t>ALCAZAR SOTO AMY RUBY</t>
+  </si>
+  <si>
+    <t>APARCANA MARAÑON BETSY JOANA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ CESPEDES JANNET ESTHER</t>
+  </si>
+  <si>
+    <t>GALINDO BRICEÑO CLAUDIA ESTHEFANY</t>
+  </si>
+  <si>
+    <t>MENDOZA AQUIJE DANITZA NAYELLY</t>
+  </si>
+  <si>
+    <t>PICKMAN CANCHOS PIERINA MARELA</t>
+  </si>
+  <si>
+    <t>ALHUANUCO</t>
+  </si>
+  <si>
+    <t>CIPRIANO GABRIEL CATY</t>
+  </si>
+  <si>
+    <t>PUYO PISCO GRECIA ALIDA</t>
+  </si>
+  <si>
+    <t>RUIZ ZEVALLOS KAREN ANY</t>
+  </si>
+  <si>
+    <t>SALAS ALVINO INGRID MARYOLI</t>
+  </si>
+  <si>
+    <t>TAPULLIMA PIÑA LALY AMPARO</t>
+  </si>
+  <si>
+    <t>TORRES DIMAS LUCY</t>
+  </si>
+  <si>
+    <t>ALCHINCHA</t>
+  </si>
+  <si>
+    <t>AGUILAR ATUNCAR MARLON JOSEPH</t>
+  </si>
+  <si>
+    <t>ALVAREZ BECERRA EMMA NATALY</t>
+  </si>
+  <si>
+    <t>NAPA HUALLANCA LESLIE GABRIELA</t>
+  </si>
+  <si>
+    <t>PACHAS BARRIOS KATHERINE GIOVANNA</t>
+  </si>
+  <si>
+    <t>SANCHEZ ATUNCAR MARIA LUCIANA</t>
+  </si>
+  <si>
+    <t>ALAREQ</t>
+  </si>
+  <si>
+    <t>ARO SANO MARIA FERNANDA BRENDA</t>
+  </si>
+  <si>
+    <t>CAMA BEGAZO DAMARIS FRANCY</t>
+  </si>
+  <si>
+    <t>HUACO BENGOA DANILA MILAGROS</t>
+  </si>
+  <si>
+    <t>ILLPA TUYA ROSMERY</t>
+  </si>
+  <si>
+    <t>QUIROZ HUAYLLANI BRITTANY LIZETH</t>
+  </si>
+  <si>
+    <t>SAAVEDRA FLORES VANESSA FERNANDA</t>
+  </si>
+  <si>
+    <t>ALCAÑETE</t>
+  </si>
+  <si>
+    <t>BALBOA ESPINOZA FRANCCESCA STEFANY</t>
+  </si>
+  <si>
+    <t>GUERRA MORALES MARIA ISABEL</t>
+  </si>
+  <si>
+    <t>MEZA SANTAYANA YESSENIA</t>
+  </si>
+  <si>
+    <t>SANCHEZ HIDALGO JAZMIN GIANELLA</t>
+  </si>
+  <si>
+    <t>ALCAJAM-02</t>
+  </si>
+  <si>
+    <t>BAUTISTA RODRIGUEZ REBECA</t>
+  </si>
+  <si>
+    <t>CASTRO GALVEZ CRISTINA JACKELIN</t>
+  </si>
+  <si>
+    <t>ESPINOZA TAPIA GLADYS ARLITA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">HERNANDEZ DIAZ ROYNER FRAN
+</t>
+  </si>
+  <si>
+    <t>INFANTE CUEVA DANITZA EMELYN</t>
+  </si>
+  <si>
+    <t>PERÉZ DELGADO KARÍN ROSMERY</t>
+  </si>
+  <si>
+    <t>RAMOS IDRUGO FRESIA LISBET</t>
+  </si>
+  <si>
+    <t>ALRAM</t>
+  </si>
+  <si>
+    <t>CUNYAS QUISPE ZAYDA</t>
+  </si>
+  <si>
+    <t>LOC YOPLAC WILLIAMS MOISES</t>
+  </si>
+  <si>
+    <t>MANCO GARCIA PIERO JOMAR</t>
+  </si>
+  <si>
+    <t>MORI RAYMUNDO ADELA CRISTELL</t>
+  </si>
+  <si>
+    <t>SANTIAGO LUCERO ELIANA YESABELLA</t>
+  </si>
+  <si>
+    <t>TINEO FLORES SILVIA PATRICIA</t>
+  </si>
+  <si>
+    <t>VILLALOBOS TORRES FRED WILLIAM</t>
+  </si>
+  <si>
+    <t>ALPIURA</t>
+  </si>
+  <si>
+    <t>BARDALES MENA ALMENDRA FIORELLA</t>
+  </si>
+  <si>
+    <t>GOMEZ VILLEGAS EVELYN ALEXANDRA</t>
+  </si>
+  <si>
+    <t>LEON CORDOVA BERTHA MARIA</t>
+  </si>
+  <si>
+    <t>MERINO CALLE LUISA MERCEDES</t>
+  </si>
+  <si>
+    <t>MIULLER NAVARRO LESLIE BETZABETH</t>
+  </si>
+  <si>
+    <t>ORDINOLA BARRIENTOS FIORELLA JOSYMAR</t>
+  </si>
+  <si>
+    <t>RAMOS MORAN MONICA NOEMI</t>
+  </si>
+  <si>
+    <t>SERRANO CORDOVA ESMERALDA LISBETH</t>
+  </si>
+  <si>
+    <t>ALTRUJ02</t>
+  </si>
+  <si>
+    <t>GOMEZ GUERRA JASMIN MARGOT</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ IRAITA MARYORI HAIDEE</t>
+  </si>
+  <si>
+    <t>SANCHEZ RUIZ LESLIE ANTHUANETT</t>
+  </si>
+  <si>
+    <t>SARMIENTO ALVARADO ALEXANDRA JOHANA</t>
+  </si>
+  <si>
+    <t>TIRADO AGUSTIN LIS MARITZA</t>
+  </si>
+  <si>
+    <t>VALERA CERQUIN MIRIAN EDITH</t>
+  </si>
+  <si>
+    <t>ALMJM</t>
+  </si>
+  <si>
+    <t>ARROYO SOTO MAFFIU GACIEL</t>
+  </si>
+  <si>
+    <t>BRAVO VELAZCO REYNALDO RAFAEL</t>
+  </si>
+  <si>
+    <t>GABRIEL TORRES KALIDIA BRIGITT</t>
+  </si>
+  <si>
+    <t>NUNURA GARCIA GABRIEL</t>
+  </si>
+  <si>
+    <t>ALPZNORTE</t>
+  </si>
+  <si>
+    <t>BARRON PEÑA OLINDA MARLENE</t>
+  </si>
+  <si>
+    <t>MENDOZA AGUIRRE CAROLINA DEL PILAR</t>
+  </si>
+  <si>
+    <t>PEREZ REMUZGO LOURDES EDITH</t>
+  </si>
+  <si>
+    <t>PINTO HUERTO MELANIE FAVIANA</t>
+  </si>
+  <si>
+    <t>TUESTA DEL AGUILA ISOLINA</t>
+  </si>
+  <si>
+    <t>ALMSUR</t>
+  </si>
+  <si>
+    <t>ALFARO MAGALLANES VALERIA ARACELI</t>
+  </si>
+  <si>
+    <t>CORDOVA GAMARRA KYARA MICAELA</t>
+  </si>
+  <si>
+    <t>GARCIA REATEGUI IVY MALU</t>
+  </si>
+  <si>
+    <t>IZAGUIRRE EGOAVIL LUZ ESTHER</t>
+  </si>
+  <si>
+    <t>MONJA MEZA ALINA JOSEFINA</t>
+  </si>
+  <si>
+    <t>POMAHUALLCA QUISPE MILAGROS RUTH</t>
+  </si>
+  <si>
+    <t>SILVA SUNCION LEYDY MARICELA</t>
+  </si>
+  <si>
+    <t>VALDIVIA GONZALES RUTH GIOVANNA</t>
+  </si>
+  <si>
+    <t>ZUÑIGA VELITA ROMINA ETEL</t>
+  </si>
+  <si>
+    <t>ALHUANCAYO</t>
+  </si>
+  <si>
+    <t>BENITO BRAVO BRISSHELL MARIANA</t>
+  </si>
+  <si>
+    <t>DE LA CRUZ AQUINO MARIA CRISTINA</t>
+  </si>
+  <si>
+    <t>INGA REYNA KEYLA MAYLI</t>
+  </si>
+  <si>
+    <t>QUINCHO QUISPE SHEYLA JENNIFER</t>
+  </si>
+  <si>
+    <t>QUISPE CRISPIN MARIA DE LOS ANGELES</t>
+  </si>
+  <si>
+    <t>ALMGAM02</t>
+  </si>
+  <si>
+    <t>DAVALOS ROMERO OSWALDO EDINSON</t>
+  </si>
+  <si>
+    <t>HURTADO TORRES LISBETH</t>
+  </si>
+  <si>
+    <t>LA CERDA CUMAPA MARJORIA</t>
+  </si>
+  <si>
+    <t>NUNURA SAVA DAVID ARTURO</t>
+  </si>
+  <si>
+    <t>PACHERRES DIOSES GHIORDANA NAZARETH</t>
+  </si>
+  <si>
+    <t>PINO BRANDAN YULENA</t>
+  </si>
+  <si>
+    <t>VASQUEZ BANDA ELIZABETH AVELINA</t>
+  </si>
+  <si>
+    <t>ALMINKA</t>
+  </si>
+  <si>
+    <t>APONTE GUTIERREZ CHEILA ELIZABETH</t>
+  </si>
+  <si>
+    <t>GALVEZ LUZQUIÑO MARCOS JOSUE</t>
+  </si>
+  <si>
+    <t>MONCAYO GARCIA VERONIKA SOLANGE</t>
+  </si>
+  <si>
+    <t>PARIONA PALOMINO MERLY</t>
+  </si>
+  <si>
+    <t>REYES RODRIGUEZ KATHERINE YESENIA</t>
+  </si>
+  <si>
+    <t>SORIANO RAMOS KEVIN ALEXANDER</t>
+  </si>
+  <si>
+    <t>VILLACORTA IGREDA JOSEPH ANTONIO</t>
+  </si>
+  <si>
+    <t>ALANDAH-02</t>
+  </si>
+  <si>
+    <t>ARONES HUALLANCA EDITH LEONOR</t>
+  </si>
+  <si>
+    <t>CAISARA RUIZ PEGUI MARLENI</t>
+  </si>
+  <si>
+    <t>CAMACHO LOPEZ BRYAN ALDAIR</t>
+  </si>
+  <si>
+    <t>LA HOZ CAPRISTAN JOSE MIGDANIO</t>
+  </si>
+  <si>
+    <t>POMA BARRENECHEA GIANELLA</t>
+  </si>
+  <si>
+    <t>RUEDA CRUZ ALEJANDRINA DEL ROSARIO</t>
+  </si>
+  <si>
+    <t>VILLAFUERTE LOPEZ MELODY ROXSANA</t>
+  </si>
+  <si>
+    <t>ALPURUCHU</t>
+  </si>
+  <si>
+    <t>CLEMENTE MATAMOROS DEYSI ISABEL</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CRUZ TORRES TANIA NICOLE
+</t>
+  </si>
+  <si>
+    <t>ESPIRITU TORRES MIRIAN MIRELLA</t>
+  </si>
+  <si>
+    <t>ORTEGA SAEZ TRACY</t>
+  </si>
+  <si>
+    <t>PERAMAS CALLO ANJALI CAMILA</t>
+  </si>
+  <si>
+    <t>PORTAL PINTO STEFFANY SHEYLA</t>
+  </si>
+  <si>
+    <t>TAYPE MACEDO GERALDINE HAYDEE</t>
+  </si>
+  <si>
+    <t>ZACARIAS SOTO XIOMARA SESHIRA</t>
+  </si>
+  <si>
+    <t>ALPZNORTE2</t>
+  </si>
+  <si>
+    <t>AYALA DEZA ERLA GIANINA</t>
+  </si>
+  <si>
+    <t>CHALAN AGUIRRE VERONICA LILETH</t>
+  </si>
+  <si>
+    <t>LAZARO RODRIGUEZ WENDY MARISOL</t>
+  </si>
+  <si>
+    <t>MARMOLEJO ESCOBAR VICTORIA YSABEL</t>
+  </si>
+  <si>
+    <t>SIMEON FALCON LUCIA ESTEFANY</t>
+  </si>
+  <si>
+    <t>SULLON SULLON SEGUNDA MAGALY</t>
+  </si>
+  <si>
+    <t>VASQUEZ PEÑA DEYNA VIVIANA</t>
+  </si>
+  <si>
+    <t>VEGA GUERRERO MAYRA LIZET</t>
+  </si>
+  <si>
+    <t>ALCOMAS</t>
+  </si>
+  <si>
+    <t>CHUMACERO MATTOS ROCIO PILAR</t>
+  </si>
+  <si>
+    <t>ENCALADA RIVERA DE PRECIADO YANINA LIZBETH</t>
+  </si>
+  <si>
+    <t>MARQUINA MONZON MAY CHRIS</t>
+  </si>
+  <si>
+    <t>MONTALVO RAMIREZ JHOSSELYN ROSSY</t>
+  </si>
+  <si>
+    <t>PAULINO ESTRADA JANINA HORTENSIA</t>
+  </si>
+  <si>
+    <t>PRADO RAMON NOEMI MIRANDA MILAGROS</t>
+  </si>
+  <si>
+    <t>RAMIREZ LOAYZA TEOBALDO</t>
+  </si>
+  <si>
+    <t>ALCHIC02</t>
+  </si>
+  <si>
+    <t>CABRERA BURGA LESLIE ALEXANDRA</t>
+  </si>
+  <si>
+    <t>CARRASCO CARRASCO EVELIN ARLETH</t>
+  </si>
+  <si>
+    <t>CORDOVA SALAS MARICIELO DEL ROCIO</t>
+  </si>
+  <si>
+    <t>GUEVARA MONTENEGRO LUIS ANTONIO</t>
+  </si>
+  <si>
+    <t>RIVADENEYRA ARCE RUTH MARIELA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">VASQUEZ SIESQUEN EVELYN NAYELI
+</t>
+  </si>
+  <si>
+    <t>VITERI SAAVEDRA SHIRLEY JISHELL</t>
+  </si>
+  <si>
+    <t>ALTRUJ03</t>
+  </si>
+  <si>
+    <t>TORRIN HUANCAYO YNGRID MACCYORY</t>
+  </si>
+  <si>
+    <t>TUESTA VEGA JOVANA ALEJANDRA</t>
+  </si>
+  <si>
+    <t>VALENCIA SARE EVELIN ANABEL</t>
+  </si>
+  <si>
+    <t>AL516</t>
+  </si>
+  <si>
+    <t>CALDERON VARA KARY</t>
+  </si>
+  <si>
+    <t>SANTILLAN MENDOZA PAULA NATIVIDAD</t>
+  </si>
+  <si>
+    <t>ALBELLAV</t>
+  </si>
+  <si>
+    <t>ESPINOZA FRIAS DORIS JANET</t>
+  </si>
+  <si>
+    <t>FAJARDO MARTINEZ ANGELO JEANCARLO</t>
+  </si>
+  <si>
+    <t>HUAMAN BRONCANO MARGOT RUTH</t>
+  </si>
+  <si>
+    <t>ROJAS SALCEDO ELIDA SARAHIN</t>
+  </si>
+  <si>
+    <t>VELASQUEZ LOAYZA VALERIA MARIA FE</t>
+  </si>
+  <si>
+    <t>ALSJL</t>
+  </si>
+  <si>
+    <t>ANTIL LAGOS JORGE GABRIEL</t>
+  </si>
+  <si>
+    <t>ANYOSA LANCHA ESTHEFANY JOANY</t>
+  </si>
+  <si>
+    <t>CAHUA CRUZADO NAYELY</t>
+  </si>
+  <si>
+    <t>CHIRINOS BARRERA JEENIFEER FERNANDA</t>
+  </si>
+  <si>
+    <t>CRUZ CHAVEZ KATHERINE YOSHIMAR</t>
+  </si>
+  <si>
+    <t>GUEVARA GUIVAR EMERITA</t>
+  </si>
+  <si>
+    <t>RODRIGUEZ CARBAJAL JUNIOR RAFAEL</t>
+  </si>
+  <si>
+    <t>ZUÑIGA TIRADO GIULIANA VANESSA</t>
+  </si>
+  <si>
+    <t>ALPSM</t>
+  </si>
+  <si>
+    <t>DEL AGUILA SÁNCHEZ KARIELA CAROLINA</t>
+  </si>
+  <si>
+    <t>MONZON ROSELLO SANDRO SEBASTIAN</t>
+  </si>
+  <si>
+    <t>RONCAGLIOLO FERNANDEZ GIANELLA ALMENDRA</t>
+  </si>
+  <si>
+    <t>RUIZ PAZOS KATHERINE PAOLA</t>
   </si>
 </sst>
 </file>
@@ -469,10 +1216,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBC19-30CB-4351-810B-A0C90C07B456}">
-  <dimension ref="A1:B20"/>
+  <dimension ref="A1:B235"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -485,159 +1232,1879 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>3</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B12" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="B14" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B15" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="B20" t="s">
-        <v>25</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>4</v>
+      </c>
+      <c r="B22" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>4</v>
+      </c>
+      <c r="B23" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+      <c r="B24" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>4</v>
+      </c>
+      <c r="B25" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B27" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>35</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>35</v>
+      </c>
+      <c r="B31" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>35</v>
+      </c>
+      <c r="B32" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>2</v>
+      </c>
+      <c r="B33" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>2</v>
+      </c>
+      <c r="B34" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>2</v>
+      </c>
+      <c r="B35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>2</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>2</v>
+      </c>
+      <c r="B38" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
+      </c>
+      <c r="B40" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>48</v>
+      </c>
+      <c r="B41" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>48</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>48</v>
+      </c>
+      <c r="B43" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>48</v>
+      </c>
+      <c r="B44" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="B45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>48</v>
+      </c>
+      <c r="B46" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>48</v>
+      </c>
+      <c r="B47" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>48</v>
+      </c>
+      <c r="B48" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>58</v>
+      </c>
+      <c r="B50" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>58</v>
+      </c>
+      <c r="B51" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>58</v>
+      </c>
+      <c r="B52" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>58</v>
+      </c>
+      <c r="B53" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>58</v>
+      </c>
+      <c r="B54" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>58</v>
+      </c>
+      <c r="B55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>65</v>
+      </c>
+      <c r="B56" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>65</v>
+      </c>
+      <c r="B57" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>65</v>
+      </c>
+      <c r="B58" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>65</v>
+      </c>
+      <c r="B60" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>65</v>
+      </c>
+      <c r="B61" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>65</v>
+      </c>
+      <c r="B62" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>65</v>
+      </c>
+      <c r="B64" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>75</v>
+      </c>
+      <c r="B65" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>75</v>
+      </c>
+      <c r="B66" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>75</v>
+      </c>
+      <c r="B67" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>75</v>
+      </c>
+      <c r="B68" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>75</v>
+      </c>
+      <c r="B69" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>75</v>
+      </c>
+      <c r="B70" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>75</v>
+      </c>
+      <c r="B71" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>75</v>
+      </c>
+      <c r="B72" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>75</v>
+      </c>
+      <c r="B73" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>85</v>
+      </c>
+      <c r="B74" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>85</v>
+      </c>
+      <c r="B76" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>85</v>
+      </c>
+      <c r="B77" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>85</v>
+      </c>
+      <c r="B78" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>85</v>
+      </c>
+      <c r="B79" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>92</v>
+      </c>
+      <c r="B81" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>92</v>
+      </c>
+      <c r="B82" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>92</v>
+      </c>
+      <c r="B83" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>97</v>
+      </c>
+      <c r="B84" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>97</v>
+      </c>
+      <c r="B85" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>97</v>
+      </c>
+      <c r="B86" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>97</v>
+      </c>
+      <c r="B87" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>97</v>
+      </c>
+      <c r="B88" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>97</v>
+      </c>
+      <c r="B89" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>97</v>
+      </c>
+      <c r="B90" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>105</v>
+      </c>
+      <c r="B91" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>105</v>
+      </c>
+      <c r="B92" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>105</v>
+      </c>
+      <c r="B93" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>105</v>
+      </c>
+      <c r="B95" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>105</v>
+      </c>
+      <c r="B96" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>112</v>
+      </c>
+      <c r="B97" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>112</v>
+      </c>
+      <c r="B98" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>112</v>
+      </c>
+      <c r="B99" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>112</v>
+      </c>
+      <c r="B100" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>112</v>
+      </c>
+      <c r="B101" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>118</v>
+      </c>
+      <c r="B102" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>118</v>
+      </c>
+      <c r="B103" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>118</v>
+      </c>
+      <c r="B104" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>118</v>
+      </c>
+      <c r="B105" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>118</v>
+      </c>
+      <c r="B106" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>118</v>
+      </c>
+      <c r="B107" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>125</v>
+      </c>
+      <c r="B108" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>125</v>
+      </c>
+      <c r="B109" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>125</v>
+      </c>
+      <c r="B110" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>125</v>
+      </c>
+      <c r="B111" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>130</v>
+      </c>
+      <c r="B112" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>130</v>
+      </c>
+      <c r="B113" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>130</v>
+      </c>
+      <c r="B114" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>130</v>
+      </c>
+      <c r="B115" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>130</v>
+      </c>
+      <c r="B116" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>130</v>
+      </c>
+      <c r="B117" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>130</v>
+      </c>
+      <c r="B118" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>138</v>
+      </c>
+      <c r="B119" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>138</v>
+      </c>
+      <c r="B120" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>138</v>
+      </c>
+      <c r="B121" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>138</v>
+      </c>
+      <c r="B122" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>138</v>
+      </c>
+      <c r="B123" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>138</v>
+      </c>
+      <c r="B124" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>138</v>
+      </c>
+      <c r="B125" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>146</v>
+      </c>
+      <c r="B126" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>146</v>
+      </c>
+      <c r="B127" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>146</v>
+      </c>
+      <c r="B128" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>146</v>
+      </c>
+      <c r="B129" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>146</v>
+      </c>
+      <c r="B130" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>146</v>
+      </c>
+      <c r="B131" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>146</v>
+      </c>
+      <c r="B132" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>146</v>
+      </c>
+      <c r="B133" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>155</v>
+      </c>
+      <c r="B134" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>155</v>
+      </c>
+      <c r="B135" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>155</v>
+      </c>
+      <c r="B136" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>155</v>
+      </c>
+      <c r="B137" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>155</v>
+      </c>
+      <c r="B138" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>155</v>
+      </c>
+      <c r="B139" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>162</v>
+      </c>
+      <c r="B140" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>162</v>
+      </c>
+      <c r="B141" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>162</v>
+      </c>
+      <c r="B142" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>162</v>
+      </c>
+      <c r="B143" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>167</v>
+      </c>
+      <c r="B144" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>167</v>
+      </c>
+      <c r="B145" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>167</v>
+      </c>
+      <c r="B146" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>167</v>
+      </c>
+      <c r="B147" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>167</v>
+      </c>
+      <c r="B148" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>173</v>
+      </c>
+      <c r="B149" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>173</v>
+      </c>
+      <c r="B150" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>173</v>
+      </c>
+      <c r="B151" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>173</v>
+      </c>
+      <c r="B152" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>173</v>
+      </c>
+      <c r="B153" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>173</v>
+      </c>
+      <c r="B154" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>173</v>
+      </c>
+      <c r="B155" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>173</v>
+      </c>
+      <c r="B156" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>173</v>
+      </c>
+      <c r="B157" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
+        <v>183</v>
+      </c>
+      <c r="B158" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
+        <v>183</v>
+      </c>
+      <c r="B159" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
+        <v>183</v>
+      </c>
+      <c r="B160" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
+        <v>183</v>
+      </c>
+      <c r="B161" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
+        <v>183</v>
+      </c>
+      <c r="B162" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" t="s">
+        <v>189</v>
+      </c>
+      <c r="B163" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" t="s">
+        <v>189</v>
+      </c>
+      <c r="B164" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" t="s">
+        <v>189</v>
+      </c>
+      <c r="B165" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>189</v>
+      </c>
+      <c r="B166" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
+        <v>189</v>
+      </c>
+      <c r="B167" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
+        <v>189</v>
+      </c>
+      <c r="B168" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
+        <v>189</v>
+      </c>
+      <c r="B169" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
+        <v>197</v>
+      </c>
+      <c r="B170" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
+        <v>197</v>
+      </c>
+      <c r="B171" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
+        <v>197</v>
+      </c>
+      <c r="B172" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" t="s">
+        <v>197</v>
+      </c>
+      <c r="B173" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" t="s">
+        <v>197</v>
+      </c>
+      <c r="B174" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
+        <v>197</v>
+      </c>
+      <c r="B175" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
+        <v>197</v>
+      </c>
+      <c r="B176" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" t="s">
+        <v>205</v>
+      </c>
+      <c r="B177" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" t="s">
+        <v>205</v>
+      </c>
+      <c r="B178" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
+        <v>205</v>
+      </c>
+      <c r="B179" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
+        <v>205</v>
+      </c>
+      <c r="B180" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
+        <v>205</v>
+      </c>
+      <c r="B181" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" t="s">
+        <v>205</v>
+      </c>
+      <c r="B182" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>205</v>
+      </c>
+      <c r="B183" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A184" t="s">
+        <v>213</v>
+      </c>
+      <c r="B184" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
+        <v>213</v>
+      </c>
+      <c r="B185" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
+        <v>213</v>
+      </c>
+      <c r="B186" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
+        <v>213</v>
+      </c>
+      <c r="B187" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>213</v>
+      </c>
+      <c r="B188" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" t="s">
+        <v>213</v>
+      </c>
+      <c r="B189" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" t="s">
+        <v>213</v>
+      </c>
+      <c r="B190" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
+        <v>213</v>
+      </c>
+      <c r="B191" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" t="s">
+        <v>222</v>
+      </c>
+      <c r="B192" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" t="s">
+        <v>222</v>
+      </c>
+      <c r="B193" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" t="s">
+        <v>222</v>
+      </c>
+      <c r="B194" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" t="s">
+        <v>222</v>
+      </c>
+      <c r="B195" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" t="s">
+        <v>222</v>
+      </c>
+      <c r="B196" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" t="s">
+        <v>222</v>
+      </c>
+      <c r="B197" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" t="s">
+        <v>222</v>
+      </c>
+      <c r="B198" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" t="s">
+        <v>222</v>
+      </c>
+      <c r="B199" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" t="s">
+        <v>231</v>
+      </c>
+      <c r="B200" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" t="s">
+        <v>231</v>
+      </c>
+      <c r="B201" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" t="s">
+        <v>231</v>
+      </c>
+      <c r="B202" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" t="s">
+        <v>231</v>
+      </c>
+      <c r="B203" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" t="s">
+        <v>231</v>
+      </c>
+      <c r="B204" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" t="s">
+        <v>231</v>
+      </c>
+      <c r="B205" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" t="s">
+        <v>231</v>
+      </c>
+      <c r="B206" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" t="s">
+        <v>239</v>
+      </c>
+      <c r="B207" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" t="s">
+        <v>239</v>
+      </c>
+      <c r="B208" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
+        <v>239</v>
+      </c>
+      <c r="B209" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
+        <v>239</v>
+      </c>
+      <c r="B210" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
+        <v>239</v>
+      </c>
+      <c r="B211" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>239</v>
+      </c>
+      <c r="B212" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
+        <v>239</v>
+      </c>
+      <c r="B213" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
+        <v>247</v>
+      </c>
+      <c r="B214" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
+        <v>247</v>
+      </c>
+      <c r="B215" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
+        <v>247</v>
+      </c>
+      <c r="B216" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
+        <v>251</v>
+      </c>
+      <c r="B217" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
+        <v>251</v>
+      </c>
+      <c r="B218" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>254</v>
+      </c>
+      <c r="B219" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" t="s">
+        <v>254</v>
+      </c>
+      <c r="B220" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" t="s">
+        <v>254</v>
+      </c>
+      <c r="B221" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" t="s">
+        <v>254</v>
+      </c>
+      <c r="B222" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" t="s">
+        <v>254</v>
+      </c>
+      <c r="B223" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" t="s">
+        <v>260</v>
+      </c>
+      <c r="B224" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A225" t="s">
+        <v>260</v>
+      </c>
+      <c r="B225" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A226" t="s">
+        <v>260</v>
+      </c>
+      <c r="B226" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" t="s">
+        <v>260</v>
+      </c>
+      <c r="B227" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A228" t="s">
+        <v>260</v>
+      </c>
+      <c r="B228" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A229" t="s">
+        <v>260</v>
+      </c>
+      <c r="B229" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" t="s">
+        <v>260</v>
+      </c>
+      <c r="B230" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A231" t="s">
+        <v>260</v>
+      </c>
+      <c r="B231" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A232" t="s">
+        <v>269</v>
+      </c>
+      <c r="B232" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" t="s">
+        <v>269</v>
+      </c>
+      <c r="B233" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A234" t="s">
+        <v>269</v>
+      </c>
+      <c r="B234" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A235" t="s">
+        <v>269</v>
+      </c>
+      <c r="B235" t="s">
+        <v>273</v>
       </c>
     </row>
   </sheetData>

--- a/Asesores.xlsx
+++ b/Asesores.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\usuario\Desktop\VIALE\APP\Asesores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23ED516A-3ECC-4E95-BCCB-1517A9E41C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6FF131-3EB2-4D9E-BF9D-2B0F0B9C2CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD5E126E-B025-40D3-BFA8-DFA250FDB459}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="275">
   <si>
     <t>Tienda</t>
   </si>
@@ -859,6 +859,9 @@
   </si>
   <si>
     <t>RUIZ PAZOS KATHERINE PAOLA</t>
+  </si>
+  <si>
+    <t>GALLARDO OCAS LUIS FERNANDO</t>
   </si>
 </sst>
 </file>
@@ -1216,10 +1219,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBC19-30CB-4351-810B-A0C90C07B456}">
-  <dimension ref="A1:B235"/>
+  <dimension ref="A1:B236"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
+      <selection activeCell="E103" sqref="E103"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2173,10 +2176,10 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2184,7 +2187,7 @@
         <v>138</v>
       </c>
       <c r="B120" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2192,7 +2195,7 @@
         <v>138</v>
       </c>
       <c r="B121" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2200,7 +2203,7 @@
         <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2208,7 +2211,7 @@
         <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2216,7 +2219,7 @@
         <v>138</v>
       </c>
       <c r="B124" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2224,15 +2227,15 @@
         <v>138</v>
       </c>
       <c r="B125" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B126" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2240,7 +2243,7 @@
         <v>146</v>
       </c>
       <c r="B127" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2248,7 +2251,7 @@
         <v>146</v>
       </c>
       <c r="B128" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2256,7 +2259,7 @@
         <v>146</v>
       </c>
       <c r="B129" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2264,7 +2267,7 @@
         <v>146</v>
       </c>
       <c r="B130" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,7 +2275,7 @@
         <v>146</v>
       </c>
       <c r="B131" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2280,7 +2283,7 @@
         <v>146</v>
       </c>
       <c r="B132" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2288,15 +2291,15 @@
         <v>146</v>
       </c>
       <c r="B133" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B134" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2304,7 +2307,7 @@
         <v>155</v>
       </c>
       <c r="B135" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2312,7 +2315,7 @@
         <v>155</v>
       </c>
       <c r="B136" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2323,7 @@
         <v>155</v>
       </c>
       <c r="B137" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2328,7 +2331,7 @@
         <v>155</v>
       </c>
       <c r="B138" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2336,15 +2339,15 @@
         <v>155</v>
       </c>
       <c r="B139" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B140" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2352,7 +2355,7 @@
         <v>162</v>
       </c>
       <c r="B141" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2360,7 +2363,7 @@
         <v>162</v>
       </c>
       <c r="B142" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2368,15 +2371,15 @@
         <v>162</v>
       </c>
       <c r="B143" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B144" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2384,7 +2387,7 @@
         <v>167</v>
       </c>
       <c r="B145" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2392,7 +2395,7 @@
         <v>167</v>
       </c>
       <c r="B146" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2400,7 +2403,7 @@
         <v>167</v>
       </c>
       <c r="B147" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2408,15 +2411,15 @@
         <v>167</v>
       </c>
       <c r="B148" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B149" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
@@ -2424,7 +2427,7 @@
         <v>173</v>
       </c>
       <c r="B150" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2432,7 +2435,7 @@
         <v>173</v>
       </c>
       <c r="B151" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2440,7 +2443,7 @@
         <v>173</v>
       </c>
       <c r="B152" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2448,7 +2451,7 @@
         <v>173</v>
       </c>
       <c r="B153" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2456,7 +2459,7 @@
         <v>173</v>
       </c>
       <c r="B154" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2464,7 +2467,7 @@
         <v>173</v>
       </c>
       <c r="B155" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2472,7 +2475,7 @@
         <v>173</v>
       </c>
       <c r="B156" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2480,15 +2483,15 @@
         <v>173</v>
       </c>
       <c r="B157" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B158" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -2496,7 +2499,7 @@
         <v>183</v>
       </c>
       <c r="B159" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2504,7 +2507,7 @@
         <v>183</v>
       </c>
       <c r="B160" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2512,7 +2515,7 @@
         <v>183</v>
       </c>
       <c r="B161" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2520,15 +2523,15 @@
         <v>183</v>
       </c>
       <c r="B162" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B163" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
@@ -2536,7 +2539,7 @@
         <v>189</v>
       </c>
       <c r="B164" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,7 +2547,7 @@
         <v>189</v>
       </c>
       <c r="B165" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2552,7 +2555,7 @@
         <v>189</v>
       </c>
       <c r="B166" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2560,7 +2563,7 @@
         <v>189</v>
       </c>
       <c r="B167" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2568,7 +2571,7 @@
         <v>189</v>
       </c>
       <c r="B168" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2576,15 +2579,15 @@
         <v>189</v>
       </c>
       <c r="B169" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B170" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -2592,7 +2595,7 @@
         <v>197</v>
       </c>
       <c r="B171" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2600,7 +2603,7 @@
         <v>197</v>
       </c>
       <c r="B172" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2608,7 +2611,7 @@
         <v>197</v>
       </c>
       <c r="B173" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -2616,7 +2619,7 @@
         <v>197</v>
       </c>
       <c r="B174" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2624,7 +2627,7 @@
         <v>197</v>
       </c>
       <c r="B175" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -2632,15 +2635,15 @@
         <v>197</v>
       </c>
       <c r="B176" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B177" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
@@ -2648,7 +2651,7 @@
         <v>205</v>
       </c>
       <c r="B178" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2659,7 @@
         <v>205</v>
       </c>
       <c r="B179" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2667,7 @@
         <v>205</v>
       </c>
       <c r="B180" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -2672,7 +2675,7 @@
         <v>205</v>
       </c>
       <c r="B181" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -2680,7 +2683,7 @@
         <v>205</v>
       </c>
       <c r="B182" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -2688,15 +2691,15 @@
         <v>205</v>
       </c>
       <c r="B183" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B184" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -2704,7 +2707,7 @@
         <v>213</v>
       </c>
       <c r="B185" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -2712,7 +2715,7 @@
         <v>213</v>
       </c>
       <c r="B186" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -2720,7 +2723,7 @@
         <v>213</v>
       </c>
       <c r="B187" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,7 +2731,7 @@
         <v>213</v>
       </c>
       <c r="B188" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -2736,7 +2739,7 @@
         <v>213</v>
       </c>
       <c r="B189" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2747,7 @@
         <v>213</v>
       </c>
       <c r="B190" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,15 +2755,15 @@
         <v>213</v>
       </c>
       <c r="B191" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B192" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
@@ -2768,7 +2771,7 @@
         <v>222</v>
       </c>
       <c r="B193" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -2776,7 +2779,7 @@
         <v>222</v>
       </c>
       <c r="B194" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -2784,7 +2787,7 @@
         <v>222</v>
       </c>
       <c r="B195" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2792,7 +2795,7 @@
         <v>222</v>
       </c>
       <c r="B196" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -2800,7 +2803,7 @@
         <v>222</v>
       </c>
       <c r="B197" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -2808,7 +2811,7 @@
         <v>222</v>
       </c>
       <c r="B198" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2816,15 +2819,15 @@
         <v>222</v>
       </c>
       <c r="B199" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B200" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -2832,7 +2835,7 @@
         <v>231</v>
       </c>
       <c r="B201" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2840,7 +2843,7 @@
         <v>231</v>
       </c>
       <c r="B202" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2848,7 +2851,7 @@
         <v>231</v>
       </c>
       <c r="B203" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2856,7 +2859,7 @@
         <v>231</v>
       </c>
       <c r="B204" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2864,7 +2867,7 @@
         <v>231</v>
       </c>
       <c r="B205" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2872,15 +2875,15 @@
         <v>231</v>
       </c>
       <c r="B206" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B207" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -2888,7 +2891,7 @@
         <v>239</v>
       </c>
       <c r="B208" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2896,7 +2899,7 @@
         <v>239</v>
       </c>
       <c r="B209" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2904,7 +2907,7 @@
         <v>239</v>
       </c>
       <c r="B210" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2912,7 +2915,7 @@
         <v>239</v>
       </c>
       <c r="B211" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2920,7 +2923,7 @@
         <v>239</v>
       </c>
       <c r="B212" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2928,15 +2931,15 @@
         <v>239</v>
       </c>
       <c r="B213" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B214" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -2944,7 +2947,7 @@
         <v>247</v>
       </c>
       <c r="B215" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2952,15 +2955,15 @@
         <v>247</v>
       </c>
       <c r="B216" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B217" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
@@ -2968,15 +2971,15 @@
         <v>251</v>
       </c>
       <c r="B218" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B219" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -2984,7 +2987,7 @@
         <v>254</v>
       </c>
       <c r="B220" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2995,7 @@
         <v>254</v>
       </c>
       <c r="B221" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3000,7 +3003,7 @@
         <v>254</v>
       </c>
       <c r="B222" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3008,15 +3011,15 @@
         <v>254</v>
       </c>
       <c r="B223" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B224" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
@@ -3024,7 +3027,7 @@
         <v>260</v>
       </c>
       <c r="B225" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +3035,7 @@
         <v>260</v>
       </c>
       <c r="B226" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3040,7 +3043,7 @@
         <v>260</v>
       </c>
       <c r="B227" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3048,7 +3051,7 @@
         <v>260</v>
       </c>
       <c r="B228" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3056,7 +3059,7 @@
         <v>260</v>
       </c>
       <c r="B229" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3064,7 +3067,7 @@
         <v>260</v>
       </c>
       <c r="B230" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -3072,15 +3075,15 @@
         <v>260</v>
       </c>
       <c r="B231" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B232" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
@@ -3088,7 +3091,7 @@
         <v>269</v>
       </c>
       <c r="B233" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3096,7 +3099,7 @@
         <v>269</v>
       </c>
       <c r="B234" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3104,6 +3107,14 @@
         <v>269</v>
       </c>
       <c r="B235" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" t="s">
+        <v>269</v>
+      </c>
+      <c r="B236" t="s">
         <v>273</v>
       </c>
     </row>

--- a/Asesores.xlsx
+++ b/Asesores.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\usuario\Desktop\VIALE\APP\Asesores\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6FF131-3EB2-4D9E-BF9D-2B0F0B9C2CC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE80A27-2F65-4DE2-8921-79D24B5C4F70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CD5E126E-B025-40D3-BFA8-DFA250FDB459}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="472" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="276">
   <si>
     <t>Tienda</t>
   </si>
@@ -862,6 +862,9 @@
   </si>
   <si>
     <t>GALLARDO OCAS LUIS FERNANDO</t>
+  </si>
+  <si>
+    <t>PEÑA ESPINOZA JHERRISON MARIO</t>
   </si>
 </sst>
 </file>
@@ -1219,14 +1222,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2CBC19-30CB-4351-810B-A0C90C07B456}">
-  <dimension ref="A1:B236"/>
+  <dimension ref="A1:B237"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A85" workbookViewId="0">
-      <selection activeCell="E103" sqref="E103"/>
+    <sheetView tabSelected="1" topLeftCell="A84" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="13.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="34.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2000,10 +2004,10 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="B97" t="s">
-        <v>113</v>
+        <v>275</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2011,7 +2015,7 @@
         <v>112</v>
       </c>
       <c r="B98" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2019,7 +2023,7 @@
         <v>112</v>
       </c>
       <c r="B99" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2027,7 +2031,7 @@
         <v>112</v>
       </c>
       <c r="B100" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2035,15 +2039,15 @@
         <v>112</v>
       </c>
       <c r="B101" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B102" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
@@ -2051,7 +2055,7 @@
         <v>118</v>
       </c>
       <c r="B103" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
@@ -2059,7 +2063,7 @@
         <v>118</v>
       </c>
       <c r="B104" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
@@ -2067,7 +2071,7 @@
         <v>118</v>
       </c>
       <c r="B105" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
@@ -2075,7 +2079,7 @@
         <v>118</v>
       </c>
       <c r="B106" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2083,15 +2087,15 @@
         <v>118</v>
       </c>
       <c r="B107" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="B108" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
@@ -2099,7 +2103,7 @@
         <v>125</v>
       </c>
       <c r="B109" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2107,7 +2111,7 @@
         <v>125</v>
       </c>
       <c r="B110" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2115,15 +2119,15 @@
         <v>125</v>
       </c>
       <c r="B111" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B112" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.25">
@@ -2131,7 +2135,7 @@
         <v>130</v>
       </c>
       <c r="B113" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.25">
@@ -2139,7 +2143,7 @@
         <v>130</v>
       </c>
       <c r="B114" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2147,7 +2151,7 @@
         <v>130</v>
       </c>
       <c r="B115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
@@ -2155,7 +2159,7 @@
         <v>130</v>
       </c>
       <c r="B116" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2163,7 +2167,7 @@
         <v>130</v>
       </c>
       <c r="B117" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
@@ -2171,7 +2175,7 @@
         <v>130</v>
       </c>
       <c r="B118" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2179,15 +2183,15 @@
         <v>130</v>
       </c>
       <c r="B119" t="s">
-        <v>274</v>
+        <v>137</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B120" t="s">
-        <v>139</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
@@ -2195,7 +2199,7 @@
         <v>138</v>
       </c>
       <c r="B121" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2203,7 +2207,7 @@
         <v>138</v>
       </c>
       <c r="B122" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2211,7 +2215,7 @@
         <v>138</v>
       </c>
       <c r="B123" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
@@ -2219,7 +2223,7 @@
         <v>138</v>
       </c>
       <c r="B124" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2227,7 +2231,7 @@
         <v>138</v>
       </c>
       <c r="B125" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2235,15 +2239,15 @@
         <v>138</v>
       </c>
       <c r="B126" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
       <c r="B127" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2251,7 +2255,7 @@
         <v>146</v>
       </c>
       <c r="B128" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
@@ -2259,7 +2263,7 @@
         <v>146</v>
       </c>
       <c r="B129" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
@@ -2267,7 +2271,7 @@
         <v>146</v>
       </c>
       <c r="B130" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2275,7 +2279,7 @@
         <v>146</v>
       </c>
       <c r="B131" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.25">
@@ -2283,7 +2287,7 @@
         <v>146</v>
       </c>
       <c r="B132" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.25">
@@ -2291,7 +2295,7 @@
         <v>146</v>
       </c>
       <c r="B133" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.25">
@@ -2299,15 +2303,15 @@
         <v>146</v>
       </c>
       <c r="B134" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B135" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
@@ -2315,7 +2319,7 @@
         <v>155</v>
       </c>
       <c r="B136" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2323,7 +2327,7 @@
         <v>155</v>
       </c>
       <c r="B137" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2331,7 +2335,7 @@
         <v>155</v>
       </c>
       <c r="B138" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2339,7 +2343,7 @@
         <v>155</v>
       </c>
       <c r="B139" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2347,15 +2351,15 @@
         <v>155</v>
       </c>
       <c r="B140" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="B141" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.25">
@@ -2363,7 +2367,7 @@
         <v>162</v>
       </c>
       <c r="B142" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2371,7 +2375,7 @@
         <v>162</v>
       </c>
       <c r="B143" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.25">
@@ -2379,15 +2383,15 @@
         <v>162</v>
       </c>
       <c r="B144" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B145" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2395,7 +2399,7 @@
         <v>167</v>
       </c>
       <c r="B146" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.25">
@@ -2403,7 +2407,7 @@
         <v>167</v>
       </c>
       <c r="B147" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.25">
@@ -2411,7 +2415,7 @@
         <v>167</v>
       </c>
       <c r="B148" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2419,15 +2423,15 @@
         <v>167</v>
       </c>
       <c r="B149" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B150" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2435,7 +2439,7 @@
         <v>173</v>
       </c>
       <c r="B151" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2443,7 +2447,7 @@
         <v>173</v>
       </c>
       <c r="B152" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2451,7 +2455,7 @@
         <v>173</v>
       </c>
       <c r="B153" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2459,7 +2463,7 @@
         <v>173</v>
       </c>
       <c r="B154" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -2467,7 +2471,7 @@
         <v>173</v>
       </c>
       <c r="B155" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.25">
@@ -2475,7 +2479,7 @@
         <v>173</v>
       </c>
       <c r="B156" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -2483,7 +2487,7 @@
         <v>173</v>
       </c>
       <c r="B157" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
@@ -2491,15 +2495,15 @@
         <v>173</v>
       </c>
       <c r="B158" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
       <c r="B159" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -2507,7 +2511,7 @@
         <v>183</v>
       </c>
       <c r="B160" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -2515,7 +2519,7 @@
         <v>183</v>
       </c>
       <c r="B161" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -2523,7 +2527,7 @@
         <v>183</v>
       </c>
       <c r="B162" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
@@ -2531,15 +2535,15 @@
         <v>183</v>
       </c>
       <c r="B163" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B164" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -2547,7 +2551,7 @@
         <v>189</v>
       </c>
       <c r="B165" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.25">
@@ -2555,7 +2559,7 @@
         <v>189</v>
       </c>
       <c r="B166" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.25">
@@ -2563,7 +2567,7 @@
         <v>189</v>
       </c>
       <c r="B167" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.25">
@@ -2571,7 +2575,7 @@
         <v>189</v>
       </c>
       <c r="B168" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -2579,7 +2583,7 @@
         <v>189</v>
       </c>
       <c r="B169" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.25">
@@ -2587,15 +2591,15 @@
         <v>189</v>
       </c>
       <c r="B170" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B171" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -2603,7 +2607,7 @@
         <v>197</v>
       </c>
       <c r="B172" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -2611,7 +2615,7 @@
         <v>197</v>
       </c>
       <c r="B173" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -2619,7 +2623,7 @@
         <v>197</v>
       </c>
       <c r="B174" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -2627,7 +2631,7 @@
         <v>197</v>
       </c>
       <c r="B175" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.25">
@@ -2635,7 +2639,7 @@
         <v>197</v>
       </c>
       <c r="B176" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -2643,15 +2647,15 @@
         <v>197</v>
       </c>
       <c r="B177" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B178" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -2659,7 +2663,7 @@
         <v>205</v>
       </c>
       <c r="B179" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -2667,7 +2671,7 @@
         <v>205</v>
       </c>
       <c r="B180" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -2675,7 +2679,7 @@
         <v>205</v>
       </c>
       <c r="B181" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.25">
@@ -2683,7 +2687,7 @@
         <v>205</v>
       </c>
       <c r="B182" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.25">
@@ -2691,7 +2695,7 @@
         <v>205</v>
       </c>
       <c r="B183" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.25">
@@ -2699,15 +2703,15 @@
         <v>205</v>
       </c>
       <c r="B184" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="B185" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.25">
@@ -2715,7 +2719,7 @@
         <v>213</v>
       </c>
       <c r="B186" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -2723,7 +2727,7 @@
         <v>213</v>
       </c>
       <c r="B187" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -2731,7 +2735,7 @@
         <v>213</v>
       </c>
       <c r="B188" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -2739,7 +2743,7 @@
         <v>213</v>
       </c>
       <c r="B189" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -2747,7 +2751,7 @@
         <v>213</v>
       </c>
       <c r="B190" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -2755,7 +2759,7 @@
         <v>213</v>
       </c>
       <c r="B191" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.25">
@@ -2763,15 +2767,15 @@
         <v>213</v>
       </c>
       <c r="B192" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B193" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.25">
@@ -2779,7 +2783,7 @@
         <v>222</v>
       </c>
       <c r="B194" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -2787,7 +2791,7 @@
         <v>222</v>
       </c>
       <c r="B195" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -2795,7 +2799,7 @@
         <v>222</v>
       </c>
       <c r="B196" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -2803,7 +2807,7 @@
         <v>222</v>
       </c>
       <c r="B197" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -2811,7 +2815,7 @@
         <v>222</v>
       </c>
       <c r="B198" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -2819,7 +2823,7 @@
         <v>222</v>
       </c>
       <c r="B199" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -2827,15 +2831,15 @@
         <v>222</v>
       </c>
       <c r="B200" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
       <c r="B201" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -2843,7 +2847,7 @@
         <v>231</v>
       </c>
       <c r="B202" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -2851,7 +2855,7 @@
         <v>231</v>
       </c>
       <c r="B203" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -2859,7 +2863,7 @@
         <v>231</v>
       </c>
       <c r="B204" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -2867,7 +2871,7 @@
         <v>231</v>
       </c>
       <c r="B205" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -2875,7 +2879,7 @@
         <v>231</v>
       </c>
       <c r="B206" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.25">
@@ -2883,15 +2887,15 @@
         <v>231</v>
       </c>
       <c r="B207" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="B208" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -2899,7 +2903,7 @@
         <v>239</v>
       </c>
       <c r="B209" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.25">
@@ -2907,7 +2911,7 @@
         <v>239</v>
       </c>
       <c r="B210" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.25">
@@ -2915,7 +2919,7 @@
         <v>239</v>
       </c>
       <c r="B211" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -2923,7 +2927,7 @@
         <v>239</v>
       </c>
       <c r="B212" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -2931,7 +2935,7 @@
         <v>239</v>
       </c>
       <c r="B213" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.25">
@@ -2939,15 +2943,15 @@
         <v>239</v>
       </c>
       <c r="B214" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="B215" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.25">
@@ -2955,7 +2959,7 @@
         <v>247</v>
       </c>
       <c r="B216" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -2963,15 +2967,15 @@
         <v>247</v>
       </c>
       <c r="B217" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B218" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -2979,15 +2983,15 @@
         <v>251</v>
       </c>
       <c r="B219" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="B220" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -2995,7 +2999,7 @@
         <v>254</v>
       </c>
       <c r="B221" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3003,7 +3007,7 @@
         <v>254</v>
       </c>
       <c r="B222" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.25">
@@ -3011,7 +3015,7 @@
         <v>254</v>
       </c>
       <c r="B223" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.25">
@@ -3019,15 +3023,15 @@
         <v>254</v>
       </c>
       <c r="B224" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B225" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.25">
@@ -3035,7 +3039,7 @@
         <v>260</v>
       </c>
       <c r="B226" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.25">
@@ -3043,7 +3047,7 @@
         <v>260</v>
       </c>
       <c r="B227" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.25">
@@ -3051,7 +3055,7 @@
         <v>260</v>
       </c>
       <c r="B228" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.25">
@@ -3059,7 +3063,7 @@
         <v>260</v>
       </c>
       <c r="B229" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.25">
@@ -3067,7 +3071,7 @@
         <v>260</v>
       </c>
       <c r="B230" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.25">
@@ -3075,7 +3079,7 @@
         <v>260</v>
       </c>
       <c r="B231" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.25">
@@ -3083,15 +3087,15 @@
         <v>260</v>
       </c>
       <c r="B232" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="B233" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.25">
@@ -3099,7 +3103,7 @@
         <v>269</v>
       </c>
       <c r="B234" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.25">
@@ -3107,7 +3111,7 @@
         <v>269</v>
       </c>
       <c r="B235" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.25">
@@ -3115,6 +3119,14 @@
         <v>269</v>
       </c>
       <c r="B236" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" t="s">
+        <v>269</v>
+      </c>
+      <c r="B237" t="s">
         <v>273</v>
       </c>
     </row>
